--- a/Data/GPP_2022_Datamap all.xlsx
+++ b/Data/GPP_2022_Datamap all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1526" documentId="8_{97CD1D8A-93A4-4A78-8E72-F6814F066B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{147AD0AF-083E-F646-A90D-1B09F31A81FA}"/>
+  <xr:revisionPtr revIDLastSave="1531" documentId="8_{97CD1D8A-93A4-4A78-8E72-F6814F066B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1D330EF-EDF8-204E-BB18-323343317586}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11742,9 +11742,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K721"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E396" sqref="E396"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K284" sqref="K284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18896,7 +18896,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
         <v>900</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:11" ht="98" x14ac:dyDescent="0.15">
       <c r="A284" s="2" t="s">
         <v>900</v>
       </c>
@@ -21134,7 +21134,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
       <c r="A349" s="2" t="s">
         <v>900</v>
       </c>
@@ -28853,7 +28853,8 @@
   <autoFilter ref="A1:K721" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="4">
       <filters>
-        <filter val="q50"/>
+        <filter val="q43_G1"/>
+        <filter val="q43_G2"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K721">
@@ -29132,15 +29133,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9CC4A80-4ECE-427A-8469-477A6F4D7F16}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Data/GPP_2022_Datamap all.xlsx
+++ b/Data/GPP_2022_Datamap all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/LAC-Reports/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1531" documentId="8_{97CD1D8A-93A4-4A78-8E72-F6814F066B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1D330EF-EDF8-204E-BB18-323343317586}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7700AD74-6C1A-D34E-A3EB-FFB6371CC07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Map" sheetId="18" r:id="rId1"/>
@@ -11742,9 +11742,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K284" sqref="K284"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13622,7 +13622,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -13666,7 +13666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -13689,7 +13689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -13796,7 +13796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -13840,7 +13840,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -13884,7 +13884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -13907,7 +13907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -14014,7 +14014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -14081,7 +14081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -18896,7 +18896,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
         <v>900</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="98" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:11" ht="98" hidden="1" x14ac:dyDescent="0.15">
       <c r="A284" s="2" t="s">
         <v>900</v>
       </c>
@@ -27218,7 +27218,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="623" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="623" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F623" s="2" t="s">
         <v>1714</v>
       </c>
@@ -27232,7 +27232,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="624" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="624" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F624" s="2" t="s">
         <v>1715</v>
       </c>
@@ -27246,7 +27246,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="625" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F625" s="2" t="s">
         <v>1813</v>
       </c>
@@ -27260,7 +27260,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="626" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F626" s="2" t="s">
         <v>1719</v>
       </c>
@@ -27274,7 +27274,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="627" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F627" s="2" t="s">
         <v>1815</v>
       </c>
@@ -27288,7 +27288,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="628" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F628" s="2" t="s">
         <v>1817</v>
       </c>
@@ -27302,7 +27302,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="629" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F629" s="2" t="s">
         <v>1821</v>
       </c>
@@ -27316,7 +27316,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="630" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F630" s="2" t="s">
         <v>1823</v>
       </c>
@@ -27330,7 +27330,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="631" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F631" s="2" t="s">
         <v>1825</v>
       </c>
@@ -27344,7 +27344,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="632" spans="1:11" ht="43" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:11" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A632" s="20"/>
       <c r="B632" s="20"/>
       <c r="C632" s="20"/>
@@ -27365,7 +27365,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="633" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F633" s="2" t="s">
         <v>1828</v>
       </c>
@@ -27379,7 +27379,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="634" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F634" s="2" t="s">
         <v>1829</v>
       </c>
@@ -27393,7 +27393,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="635" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F635" s="2" t="s">
         <v>1831</v>
       </c>
@@ -27407,7 +27407,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="636" spans="1:11" ht="43" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:11" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A636" s="20"/>
       <c r="B636" s="20"/>
       <c r="C636" s="20"/>
@@ -27428,7 +27428,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="637" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F637" s="2" t="s">
         <v>1835</v>
       </c>
@@ -28851,10 +28851,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K721" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="4">
+    <filterColumn colId="5">
       <filters>
-        <filter val="q43_G1"/>
-        <filter val="q43_G2"/>
+        <filter val="q15a"/>
+        <filter val="q15b"/>
+        <filter val="q15c"/>
+        <filter val="q15d"/>
+        <filter val="q15e"/>
+        <filter val="q15f"/>
+        <filter val="q15g"/>
+        <filter val="q15h"/>
+        <filter val="q15i"/>
+        <filter val="q15j"/>
+        <filter val="q15k"/>
+        <filter val="q15l"/>
+        <filter val="q15m"/>
+        <filter val="q15n"/>
+        <filter val="q15o"/>
+        <filter val="q15p"/>
+        <filter val="q15q"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K721">
@@ -28868,6 +28883,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
@@ -28876,15 +28900,6 @@
     <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29131,6 +29146,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9CC4A80-4ECE-427A-8469-477A6F4D7F16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -29143,14 +29166,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/GPP_2022_Datamap all.xlsx
+++ b/Data/GPP_2022_Datamap all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7700AD74-6C1A-D34E-A3EB-FFB6371CC07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2832D68-4956-DE46-BBC8-87B3F9834D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" tabRatio="895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Map" sheetId="18" r:id="rId1"/>
@@ -11739,12 +11739,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K721"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I321" sqref="I321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11792,7 +11791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>900</v>
       </c>
@@ -11827,7 +11826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>900</v>
       </c>
@@ -11862,7 +11861,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>900</v>
       </c>
@@ -11897,7 +11896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>900</v>
       </c>
@@ -11932,7 +11931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>900</v>
       </c>
@@ -11967,7 +11966,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>900</v>
       </c>
@@ -12002,7 +12001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>900</v>
       </c>
@@ -12037,7 +12036,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>900</v>
       </c>
@@ -12072,7 +12071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>900</v>
       </c>
@@ -12107,7 +12106,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>900</v>
       </c>
@@ -12142,7 +12141,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>900</v>
       </c>
@@ -12177,7 +12176,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>900</v>
       </c>
@@ -12212,7 +12211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>900</v>
       </c>
@@ -12245,7 +12244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>900</v>
       </c>
@@ -12280,7 +12279,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>900</v>
       </c>
@@ -12315,7 +12314,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" s="8" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>900</v>
       </c>
@@ -12350,7 +12349,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>900</v>
       </c>
@@ -12385,7 +12384,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>900</v>
       </c>
@@ -12420,7 +12419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" ht="43" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="8" customFormat="1" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>900</v>
       </c>
@@ -12455,7 +12454,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>900</v>
       </c>
@@ -12490,7 +12489,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>900</v>
       </c>
@@ -12521,7 +12520,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" s="8" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>900</v>
       </c>
@@ -12556,7 +12555,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="8" customFormat="1" ht="154" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" s="8" customFormat="1" ht="154" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>900</v>
       </c>
@@ -12591,7 +12590,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>900</v>
       </c>
@@ -12626,7 +12625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="8" customFormat="1" ht="140" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" s="8" customFormat="1" ht="140" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>900</v>
       </c>
@@ -12661,7 +12660,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>900</v>
       </c>
@@ -12694,7 +12693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>900</v>
       </c>
@@ -12729,7 +12728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" s="8" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>900</v>
       </c>
@@ -12764,7 +12763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="8" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>900</v>
       </c>
@@ -12799,7 +12798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="8" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" s="8" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>900</v>
       </c>
@@ -12834,7 +12833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>900</v>
       </c>
@@ -12869,7 +12868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="8" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" s="8" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>900</v>
       </c>
@@ -12904,7 +12903,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>900</v>
       </c>
@@ -12935,7 +12934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>900</v>
       </c>
@@ -12968,7 +12967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>900</v>
       </c>
@@ -13003,7 +13002,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>900</v>
       </c>
@@ -13038,7 +13037,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>900</v>
       </c>
@@ -13073,7 +13072,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="8" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>900</v>
       </c>
@@ -13103,7 +13102,7 @@
       </c>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -13126,7 +13125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -13149,7 +13148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -13172,7 +13171,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -13195,7 +13194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -13218,7 +13217,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="8" customFormat="1" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" s="8" customFormat="1" ht="238" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -13241,7 +13240,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="8" customFormat="1" ht="154" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" s="8" customFormat="1" ht="154" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -13264,7 +13263,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="8" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" s="8" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -13285,7 +13284,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -13308,7 +13307,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="8" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" s="8" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -13331,7 +13330,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -13352,7 +13351,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -13373,7 +13372,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -13396,7 +13395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -13419,7 +13418,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -13442,7 +13441,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -13465,7 +13464,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -13486,7 +13485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -13509,7 +13508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -13532,7 +13531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -13555,7 +13554,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -13578,7 +13577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="8" customFormat="1" ht="154" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" s="8" customFormat="1" ht="154" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -13601,7 +13600,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="8" customFormat="1" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" s="8" customFormat="1" ht="196" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -13645,7 +13644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -13712,7 +13711,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -13733,7 +13732,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -13754,7 +13753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -13775,7 +13774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -13819,7 +13818,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="8" customFormat="1" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" s="8" customFormat="1" ht="293" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -13863,7 +13862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -13930,7 +13929,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -13951,7 +13950,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -13972,7 +13971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -13993,7 +13992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -14037,7 +14036,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -14058,7 +14057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -14104,7 +14103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -14125,7 +14124,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -14146,7 +14145,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -14167,7 +14166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -14188,7 +14187,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" s="8" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>900</v>
       </c>
@@ -14211,7 +14210,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="8" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" s="8" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>900</v>
       </c>
@@ -14234,7 +14233,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" s="8" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>900</v>
       </c>
@@ -14257,7 +14256,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="8" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" s="8" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>900</v>
       </c>
@@ -14280,7 +14279,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" s="8" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>900</v>
       </c>
@@ -14303,7 +14302,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>900</v>
       </c>
@@ -14326,7 +14325,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>900</v>
       </c>
@@ -14349,7 +14348,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>900</v>
       </c>
@@ -14372,7 +14371,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>900</v>
       </c>
@@ -14395,7 +14394,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>900</v>
       </c>
@@ -14418,7 +14417,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>900</v>
       </c>
@@ -14441,7 +14440,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>900</v>
       </c>
@@ -14464,7 +14463,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>900</v>
       </c>
@@ -14487,7 +14486,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>900</v>
       </c>
@@ -14510,7 +14509,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>900</v>
       </c>
@@ -14533,7 +14532,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>900</v>
       </c>
@@ -14556,7 +14555,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>900</v>
       </c>
@@ -14579,7 +14578,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="8" customFormat="1" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11" s="8" customFormat="1" ht="229.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>900</v>
       </c>
@@ -14602,7 +14601,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>900</v>
       </c>
@@ -14625,7 +14624,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>900</v>
       </c>
@@ -14648,7 +14647,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>900</v>
       </c>
@@ -14671,7 +14670,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>900</v>
       </c>
@@ -14694,7 +14693,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>900</v>
       </c>
@@ -14729,7 +14728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="8" customFormat="1" ht="93.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:11" s="8" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>900</v>
       </c>
@@ -14764,7 +14763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>900</v>
       </c>
@@ -14799,7 +14798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="8" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:11" s="8" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>900</v>
       </c>
@@ -14834,7 +14833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>900</v>
       </c>
@@ -14869,7 +14868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:11" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:11" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A116" s="31" t="s">
         <v>900</v>
       </c>
@@ -14904,7 +14903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>900</v>
       </c>
@@ -14929,7 +14928,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="118" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>900</v>
       </c>
@@ -14954,7 +14953,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>900</v>
       </c>
@@ -14979,7 +14978,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="8" customFormat="1" ht="210.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:11" s="8" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>900</v>
       </c>
@@ -15004,7 +15003,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>900</v>
       </c>
@@ -15029,7 +15028,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="122" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>900</v>
       </c>
@@ -15054,7 +15053,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="123" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>900</v>
       </c>
@@ -15079,7 +15078,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="124" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>900</v>
       </c>
@@ -15104,7 +15103,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="125" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>900</v>
       </c>
@@ -15129,7 +15128,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="126" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>900</v>
       </c>
@@ -15154,7 +15153,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="127" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>900</v>
       </c>
@@ -15179,7 +15178,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="128" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>900</v>
       </c>
@@ -15204,7 +15203,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="129" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>900</v>
       </c>
@@ -15229,7 +15228,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="130" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>900</v>
       </c>
@@ -15254,7 +15253,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>900</v>
       </c>
@@ -15279,7 +15278,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>900</v>
       </c>
@@ -15304,7 +15303,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="133" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>900</v>
       </c>
@@ -15329,7 +15328,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
         <v>900</v>
       </c>
@@ -15354,7 +15353,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>900</v>
       </c>
@@ -15379,7 +15378,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="136" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>900</v>
       </c>
@@ -15404,7 +15403,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="137" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>900</v>
       </c>
@@ -15429,7 +15428,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>900</v>
       </c>
@@ -15454,7 +15453,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>900</v>
       </c>
@@ -15479,7 +15478,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="140" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>900</v>
       </c>
@@ -15504,7 +15503,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="141" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>900</v>
       </c>
@@ -15529,7 +15528,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="142" spans="1:11" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:11" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>900</v>
       </c>
@@ -15554,7 +15553,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="143" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>900</v>
       </c>
@@ -15579,7 +15578,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
         <v>900</v>
       </c>
@@ -15604,7 +15603,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="145" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>900</v>
       </c>
@@ -15629,7 +15628,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="146" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>900</v>
       </c>
@@ -15654,7 +15653,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="147" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>900</v>
       </c>
@@ -15679,7 +15678,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>900</v>
       </c>
@@ -15704,7 +15703,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:11" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>900</v>
       </c>
@@ -15729,7 +15728,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="8" customFormat="1" ht="29" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" s="8" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
         <v>900</v>
       </c>
@@ -15754,7 +15753,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>900</v>
       </c>
@@ -15774,7 +15773,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
         <v>900</v>
       </c>
@@ -15794,7 +15793,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
         <v>900</v>
       </c>
@@ -15814,7 +15813,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
         <v>900</v>
       </c>
@@ -15834,7 +15833,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
         <v>900</v>
       </c>
@@ -15866,7 +15865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>900</v>
       </c>
@@ -15901,7 +15900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>900</v>
       </c>
@@ -15936,7 +15935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
         <v>900</v>
       </c>
@@ -15971,7 +15970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
         <v>900</v>
       </c>
@@ -16006,7 +16005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
         <v>900</v>
       </c>
@@ -16041,7 +16040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
         <v>900</v>
       </c>
@@ -16076,7 +16075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
         <v>900</v>
       </c>
@@ -16111,7 +16110,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
         <v>900</v>
       </c>
@@ -16146,7 +16145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
         <v>900</v>
       </c>
@@ -16181,7 +16180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
         <v>900</v>
       </c>
@@ -16201,7 +16200,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
         <v>900</v>
       </c>
@@ -16221,7 +16220,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="29" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A167" s="20" t="s">
         <v>900</v>
       </c>
@@ -16246,7 +16245,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
         <v>900</v>
       </c>
@@ -16266,7 +16265,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>900</v>
       </c>
@@ -16286,7 +16285,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
         <v>900</v>
       </c>
@@ -16306,7 +16305,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
         <v>900</v>
       </c>
@@ -16326,7 +16325,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
         <v>900</v>
       </c>
@@ -16346,7 +16345,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
         <v>900</v>
       </c>
@@ -16366,7 +16365,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
         <v>900</v>
       </c>
@@ -16386,7 +16385,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
         <v>900</v>
       </c>
@@ -16406,7 +16405,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
         <v>900</v>
       </c>
@@ -16426,7 +16425,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>900</v>
       </c>
@@ -16446,7 +16445,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
         <v>900</v>
       </c>
@@ -16466,7 +16465,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
         <v>900</v>
       </c>
@@ -16486,7 +16485,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
         <v>900</v>
       </c>
@@ -16506,7 +16505,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
         <v>900</v>
       </c>
@@ -16526,7 +16525,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
         <v>900</v>
       </c>
@@ -16546,7 +16545,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
         <v>900</v>
       </c>
@@ -16566,7 +16565,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
         <v>900</v>
       </c>
@@ -16586,7 +16585,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
         <v>900</v>
       </c>
@@ -16606,7 +16605,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
         <v>900</v>
       </c>
@@ -16626,7 +16625,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
         <v>900</v>
       </c>
@@ -16646,7 +16645,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
         <v>900</v>
       </c>
@@ -16666,7 +16665,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
         <v>900</v>
       </c>
@@ -16686,7 +16685,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
         <v>900</v>
       </c>
@@ -16706,7 +16705,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
         <v>900</v>
       </c>
@@ -16726,7 +16725,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
         <v>900</v>
       </c>
@@ -16746,7 +16745,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
         <v>900</v>
       </c>
@@ -16766,7 +16765,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
         <v>900</v>
       </c>
@@ -16786,7 +16785,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
         <v>900</v>
       </c>
@@ -16806,7 +16805,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
         <v>900</v>
       </c>
@@ -16826,7 +16825,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
         <v>900</v>
       </c>
@@ -16846,7 +16845,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>900</v>
       </c>
@@ -16866,7 +16865,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
         <v>900</v>
       </c>
@@ -16886,7 +16885,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
         <v>900</v>
       </c>
@@ -16906,7 +16905,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
         <v>900</v>
       </c>
@@ -16926,7 +16925,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
         <v>900</v>
       </c>
@@ -16946,7 +16945,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
         <v>900</v>
       </c>
@@ -16969,7 +16968,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
         <v>900</v>
       </c>
@@ -16992,7 +16991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
         <v>900</v>
       </c>
@@ -17015,7 +17014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
         <v>900</v>
       </c>
@@ -17038,7 +17037,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="140" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:11" ht="140" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
         <v>900</v>
       </c>
@@ -17061,7 +17060,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
         <v>900</v>
       </c>
@@ -17084,7 +17083,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
         <v>900</v>
       </c>
@@ -17107,7 +17106,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
         <v>900</v>
       </c>
@@ -17130,7 +17129,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
         <v>900</v>
       </c>
@@ -17153,7 +17152,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
         <v>900</v>
       </c>
@@ -17176,7 +17175,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>900</v>
       </c>
@@ -17199,7 +17198,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>900</v>
       </c>
@@ -17222,7 +17221,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
         <v>900</v>
       </c>
@@ -17245,7 +17244,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
         <v>900</v>
       </c>
@@ -17268,7 +17267,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
         <v>900</v>
       </c>
@@ -17291,7 +17290,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
         <v>900</v>
       </c>
@@ -17314,7 +17313,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:11" ht="196" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
         <v>900</v>
       </c>
@@ -17337,7 +17336,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="112" hidden="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:11" ht="112" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
         <v>900</v>
       </c>
@@ -17360,7 +17359,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:11" ht="238" x14ac:dyDescent="0.15">
       <c r="A221" s="2" t="s">
         <v>900</v>
       </c>
@@ -17383,7 +17382,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
         <v>900</v>
       </c>
@@ -17418,7 +17417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
         <v>900</v>
       </c>
@@ -17453,7 +17452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
         <v>900</v>
       </c>
@@ -17488,7 +17487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="71" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" ht="71" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A225" s="20" t="s">
         <v>900</v>
       </c>
@@ -17523,7 +17522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
         <v>900</v>
       </c>
@@ -17558,7 +17557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
         <v>900</v>
       </c>
@@ -17593,7 +17592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
         <v>900</v>
       </c>
@@ -17628,7 +17627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A229" s="2" t="s">
         <v>900</v>
       </c>
@@ -17651,7 +17650,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="182" hidden="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:11" ht="182" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
         <v>900</v>
       </c>
@@ -17674,7 +17673,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
         <v>900</v>
       </c>
@@ -17697,7 +17696,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
         <v>900</v>
       </c>
@@ -17720,7 +17719,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
         <v>900</v>
       </c>
@@ -17743,7 +17742,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
         <v>900</v>
       </c>
@@ -17766,7 +17765,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
         <v>900</v>
       </c>
@@ -17789,7 +17788,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
         <v>900</v>
       </c>
@@ -17812,7 +17811,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
         <v>900</v>
       </c>
@@ -17835,7 +17834,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
         <v>900</v>
       </c>
@@ -17856,7 +17855,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
         <v>900</v>
       </c>
@@ -17879,7 +17878,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
         <v>900</v>
       </c>
@@ -17902,7 +17901,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A241" s="2" t="s">
         <v>900</v>
       </c>
@@ -17925,7 +17924,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
         <v>900</v>
       </c>
@@ -17948,7 +17947,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A243" s="2" t="s">
         <v>900</v>
       </c>
@@ -17971,7 +17970,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
         <v>900</v>
       </c>
@@ -17994,7 +17993,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
         <v>900</v>
       </c>
@@ -18017,7 +18016,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
         <v>900</v>
       </c>
@@ -18040,7 +18039,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:11" ht="224" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
         <v>900</v>
       </c>
@@ -18063,7 +18062,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
         <v>900</v>
       </c>
@@ -18086,7 +18085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A249" s="2" t="s">
         <v>900</v>
       </c>
@@ -18109,7 +18108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
         <v>900</v>
       </c>
@@ -18132,7 +18131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
         <v>900</v>
       </c>
@@ -18155,7 +18154,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A252" s="2" t="s">
         <v>900</v>
       </c>
@@ -18176,7 +18175,7 @@
       </c>
       <c r="K252" s="1"/>
     </row>
-    <row r="253" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
         <v>900</v>
       </c>
@@ -18199,7 +18198,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A254" s="2" t="s">
         <v>900</v>
       </c>
@@ -18222,7 +18221,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
         <v>900</v>
       </c>
@@ -18245,7 +18244,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A256" s="2" t="s">
         <v>900</v>
       </c>
@@ -18268,7 +18267,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A257" s="2" t="s">
         <v>900</v>
       </c>
@@ -18297,7 +18296,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
         <v>900</v>
       </c>
@@ -18326,7 +18325,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A259" s="2" t="s">
         <v>900</v>
       </c>
@@ -18355,7 +18354,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A260" s="2" t="s">
         <v>900</v>
       </c>
@@ -18384,7 +18383,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A261" s="2" t="s">
         <v>900</v>
       </c>
@@ -18413,7 +18412,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A262" s="2" t="s">
         <v>900</v>
       </c>
@@ -18436,7 +18435,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A263" s="2" t="s">
         <v>900</v>
       </c>
@@ -18459,7 +18458,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
         <v>900</v>
       </c>
@@ -18482,7 +18481,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A265" s="2" t="s">
         <v>900</v>
       </c>
@@ -18505,7 +18504,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A266" s="2" t="s">
         <v>900</v>
       </c>
@@ -18528,7 +18527,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
         <v>900</v>
       </c>
@@ -18551,7 +18550,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
         <v>900</v>
       </c>
@@ -18574,7 +18573,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
         <v>900</v>
       </c>
@@ -18597,7 +18596,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A270" s="2" t="s">
         <v>900</v>
       </c>
@@ -18620,7 +18619,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A271" s="2" t="s">
         <v>900</v>
       </c>
@@ -18643,7 +18642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A272" s="2" t="s">
         <v>900</v>
       </c>
@@ -18666,7 +18665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
         <v>900</v>
       </c>
@@ -18689,7 +18688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A274" s="2" t="s">
         <v>900</v>
       </c>
@@ -18712,7 +18711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A275" s="2" t="s">
         <v>900</v>
       </c>
@@ -18735,7 +18734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A276" s="2" t="s">
         <v>900</v>
       </c>
@@ -18758,7 +18757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A277" s="2" t="s">
         <v>900</v>
       </c>
@@ -18781,7 +18780,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A278" s="2" t="s">
         <v>900</v>
       </c>
@@ -18804,7 +18803,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A279" s="2" t="s">
         <v>900</v>
       </c>
@@ -18827,7 +18826,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A280" s="2" t="s">
         <v>900</v>
       </c>
@@ -18850,7 +18849,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A281" s="2" t="s">
         <v>900</v>
       </c>
@@ -18873,7 +18872,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
         <v>900</v>
       </c>
@@ -18896,7 +18895,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
         <v>900</v>
       </c>
@@ -18931,7 +18930,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:11" ht="98" x14ac:dyDescent="0.15">
       <c r="A284" s="2" t="s">
         <v>900</v>
       </c>
@@ -18966,7 +18965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A285" s="2" t="s">
         <v>900</v>
       </c>
@@ -19001,7 +19000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
         <v>900</v>
       </c>
@@ -19036,7 +19035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A287" s="2" t="s">
         <v>900</v>
       </c>
@@ -19071,7 +19070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A288" s="2" t="s">
         <v>900</v>
       </c>
@@ -19106,7 +19105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A289" s="2" t="s">
         <v>900</v>
       </c>
@@ -19141,7 +19140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A290" s="2" t="s">
         <v>900</v>
       </c>
@@ -19176,7 +19175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A291" s="2" t="s">
         <v>900</v>
       </c>
@@ -19205,7 +19204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A292" s="2" t="s">
         <v>900</v>
       </c>
@@ -19240,7 +19239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A293" s="2" t="s">
         <v>900</v>
       </c>
@@ -19275,7 +19274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A294" s="2" t="s">
         <v>900</v>
       </c>
@@ -19310,7 +19309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A295" s="2" t="s">
         <v>900</v>
       </c>
@@ -19345,7 +19344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A296" s="2" t="s">
         <v>900</v>
       </c>
@@ -19380,7 +19379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
         <v>900</v>
       </c>
@@ -19409,7 +19408,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A298" s="2" t="s">
         <v>900</v>
       </c>
@@ -19444,7 +19443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A299" s="2" t="s">
         <v>900</v>
       </c>
@@ -19479,7 +19478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="71" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" ht="71" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A300" s="20" t="s">
         <v>900</v>
       </c>
@@ -19514,7 +19513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A301" s="2" t="s">
         <v>900</v>
       </c>
@@ -19549,7 +19548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A302" s="2" t="s">
         <v>900</v>
       </c>
@@ -19584,7 +19583,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A303" s="2" t="s">
         <v>900</v>
       </c>
@@ -19619,7 +19618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A304" s="2" t="s">
         <v>900</v>
       </c>
@@ -19654,7 +19653,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A305" s="2" t="s">
         <v>900</v>
       </c>
@@ -19689,7 +19688,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A306" s="2" t="s">
         <v>900</v>
       </c>
@@ -19724,7 +19723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A307" s="2" t="s">
         <v>900</v>
       </c>
@@ -19759,7 +19758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A308" s="2" t="s">
         <v>900</v>
       </c>
@@ -19794,7 +19793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A309" s="2" t="s">
         <v>900</v>
       </c>
@@ -19829,7 +19828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A310" s="2" t="s">
         <v>900</v>
       </c>
@@ -19864,7 +19863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A311" s="2" t="s">
         <v>900</v>
       </c>
@@ -19899,7 +19898,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A312" s="2" t="s">
         <v>900</v>
       </c>
@@ -19934,7 +19933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A313" s="2" t="s">
         <v>900</v>
       </c>
@@ -19969,7 +19968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A314" s="2" t="s">
         <v>900</v>
       </c>
@@ -20004,7 +20003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A315" s="2" t="s">
         <v>900</v>
       </c>
@@ -20039,7 +20038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A316" s="2" t="s">
         <v>900</v>
       </c>
@@ -20068,7 +20067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A317" s="2" t="s">
         <v>900</v>
       </c>
@@ -20097,7 +20096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A318" s="2" t="s">
         <v>900</v>
       </c>
@@ -20132,7 +20131,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A319" s="2" t="s">
         <v>900</v>
       </c>
@@ -20167,7 +20166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A320" s="2" t="s">
         <v>900</v>
       </c>
@@ -20202,7 +20201,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A321" s="2" t="s">
         <v>900</v>
       </c>
@@ -20237,7 +20236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A322" s="2" t="s">
         <v>900</v>
       </c>
@@ -20272,7 +20271,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A323" s="2" t="s">
         <v>900</v>
       </c>
@@ -20307,7 +20306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A324" s="2" t="s">
         <v>900</v>
       </c>
@@ -20342,7 +20341,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A325" s="2" t="s">
         <v>900</v>
       </c>
@@ -20377,7 +20376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A326" s="2" t="s">
         <v>900</v>
       </c>
@@ -20412,7 +20411,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A327" s="2" t="s">
         <v>900</v>
       </c>
@@ -20447,7 +20446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A328" s="2" t="s">
         <v>900</v>
       </c>
@@ -20482,7 +20481,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A329" s="2" t="s">
         <v>900</v>
       </c>
@@ -20517,7 +20516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A330" s="2" t="s">
         <v>900</v>
       </c>
@@ -20552,7 +20551,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A331" s="2" t="s">
         <v>900</v>
       </c>
@@ -20587,7 +20586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="71" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" ht="71" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A332" s="20" t="s">
         <v>900</v>
       </c>
@@ -20622,7 +20621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A333" s="2" t="s">
         <v>900</v>
       </c>
@@ -20657,7 +20656,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A334" s="2" t="s">
         <v>900</v>
       </c>
@@ -20692,7 +20691,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A335" s="2" t="s">
         <v>900</v>
       </c>
@@ -20727,7 +20726,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A336" s="2" t="s">
         <v>900</v>
       </c>
@@ -20762,7 +20761,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A337" s="2" t="s">
         <v>900</v>
       </c>
@@ -20797,7 +20796,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A338" s="2" t="s">
         <v>900</v>
       </c>
@@ -20832,7 +20831,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A339" s="2" t="s">
         <v>900</v>
       </c>
@@ -20852,7 +20851,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A340" s="2" t="s">
         <v>900</v>
       </c>
@@ -20884,7 +20883,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A341" s="2" t="s">
         <v>900</v>
       </c>
@@ -20919,7 +20918,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A342" s="2" t="s">
         <v>900</v>
       </c>
@@ -20954,7 +20953,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A343" s="2" t="s">
         <v>900</v>
       </c>
@@ -20983,7 +20982,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A344" s="2" t="s">
         <v>900</v>
       </c>
@@ -21012,7 +21011,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
         <v>900</v>
       </c>
@@ -21041,7 +21040,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A346" s="2" t="s">
         <v>900</v>
       </c>
@@ -21070,7 +21069,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A347" s="2" t="s">
         <v>900</v>
       </c>
@@ -21099,7 +21098,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A348" s="2" t="s">
         <v>900</v>
       </c>
@@ -21134,7 +21133,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A349" s="2" t="s">
         <v>900</v>
       </c>
@@ -21169,7 +21168,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A350" s="2" t="s">
         <v>900</v>
       </c>
@@ -21204,7 +21203,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A351" s="2" t="s">
         <v>900</v>
       </c>
@@ -21239,7 +21238,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A352" s="2" t="s">
         <v>900</v>
       </c>
@@ -21274,7 +21273,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="353" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A353" s="2" t="s">
         <v>900</v>
       </c>
@@ -21309,7 +21308,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A354" s="2" t="s">
         <v>900</v>
       </c>
@@ -21344,7 +21343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A355" s="2" t="s">
         <v>900</v>
       </c>
@@ -21379,7 +21378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A356" s="2" t="s">
         <v>900</v>
       </c>
@@ -21414,7 +21413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A357" s="2" t="s">
         <v>900</v>
       </c>
@@ -21449,7 +21448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A358" s="2" t="s">
         <v>900</v>
       </c>
@@ -21466,7 +21465,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A359" s="2" t="s">
         <v>900</v>
       </c>
@@ -21483,7 +21482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A360" s="2" t="s">
         <v>900</v>
       </c>
@@ -21500,7 +21499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A361" s="2" t="s">
         <v>900</v>
       </c>
@@ -21517,7 +21516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A362" s="2" t="s">
         <v>900</v>
       </c>
@@ -21534,7 +21533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A363" s="2" t="s">
         <v>900</v>
       </c>
@@ -21551,7 +21550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A364" s="2" t="s">
         <v>900</v>
       </c>
@@ -21568,7 +21567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A365" s="2" t="s">
         <v>900</v>
       </c>
@@ -21585,7 +21584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="366" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A366" s="2" t="s">
         <v>900</v>
       </c>
@@ -21602,7 +21601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A367" s="2" t="s">
         <v>900</v>
       </c>
@@ -21619,7 +21618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A368" s="2" t="s">
         <v>900</v>
       </c>
@@ -21636,7 +21635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="369" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A369" s="2" t="s">
         <v>900</v>
       </c>
@@ -21653,7 +21652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="370" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A370" s="2" t="s">
         <v>900</v>
       </c>
@@ -21670,7 +21669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A371" s="2" t="s">
         <v>900</v>
       </c>
@@ -21687,7 +21686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A372" s="2" t="s">
         <v>900</v>
       </c>
@@ -21704,7 +21703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A373" s="2" t="s">
         <v>900</v>
       </c>
@@ -21721,7 +21720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A374" s="2" t="s">
         <v>900</v>
       </c>
@@ -21738,7 +21737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A375" s="2" t="s">
         <v>900</v>
       </c>
@@ -21755,7 +21754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A376" s="2" t="s">
         <v>900</v>
       </c>
@@ -21772,7 +21771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="377" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A377" s="2" t="s">
         <v>900</v>
       </c>
@@ -21789,7 +21788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A378" s="2" t="s">
         <v>900</v>
       </c>
@@ -21806,7 +21805,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A379" s="2" t="s">
         <v>900</v>
       </c>
@@ -21823,7 +21822,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="380" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A380" s="2" t="s">
         <v>900</v>
       </c>
@@ -21840,7 +21839,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A381" s="2" t="s">
         <v>900</v>
       </c>
@@ -21857,7 +21856,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A382" s="2" t="s">
         <v>900</v>
       </c>
@@ -21892,7 +21891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="383" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A383" s="2" t="s">
         <v>900</v>
       </c>
@@ -21927,7 +21926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A384" s="2" t="s">
         <v>900</v>
       </c>
@@ -21962,7 +21961,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A385" s="2" t="s">
         <v>900</v>
       </c>
@@ -21997,7 +21996,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A386" s="2" t="s">
         <v>900</v>
       </c>
@@ -22032,7 +22031,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A387" s="2" t="s">
         <v>900</v>
       </c>
@@ -22067,7 +22066,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A388" s="2" t="s">
         <v>900</v>
       </c>
@@ -22102,7 +22101,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A389" s="2" t="s">
         <v>900</v>
       </c>
@@ -22137,7 +22136,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A390" s="2" t="s">
         <v>900</v>
       </c>
@@ -22172,7 +22171,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A391" s="2" t="s">
         <v>900</v>
       </c>
@@ -22205,7 +22204,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A392" s="2" t="s">
         <v>900</v>
       </c>
@@ -22237,7 +22236,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A393" s="2" t="s">
         <v>900</v>
       </c>
@@ -22269,7 +22268,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="394" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A394" s="2" t="s">
         <v>900</v>
       </c>
@@ -22304,7 +22303,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="395" spans="1:11" ht="126" hidden="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:11" ht="126" x14ac:dyDescent="0.15">
       <c r="A395" s="2" t="s">
         <v>900</v>
       </c>
@@ -22339,7 +22338,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A396" s="2" t="s">
         <v>900</v>
       </c>
@@ -22374,7 +22373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="C397" s="2" t="s">
         <v>900</v>
       </c>
@@ -22397,7 +22396,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="398" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C398" s="2" t="s">
         <v>900</v>
       </c>
@@ -22420,7 +22419,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="399" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C399" s="2" t="s">
         <v>900</v>
       </c>
@@ -22443,7 +22442,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="400" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C400" s="2" t="s">
         <v>900</v>
       </c>
@@ -22466,7 +22465,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C401" s="2" t="s">
         <v>900</v>
       </c>
@@ -22489,7 +22488,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A402" s="1"/>
       <c r="C402" s="2" t="s">
         <v>900</v>
@@ -22504,7 +22503,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="403" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A403" s="1"/>
       <c r="C403" s="2" t="s">
         <v>900</v>
@@ -22519,7 +22518,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A404" s="1"/>
       <c r="C404" s="2" t="s">
         <v>900</v>
@@ -22534,7 +22533,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A405" s="1"/>
       <c r="C405" s="2" t="s">
         <v>900</v>
@@ -22549,7 +22548,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A406" s="1"/>
       <c r="C406" s="2" t="s">
         <v>900</v>
@@ -22564,7 +22563,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A407" s="1"/>
       <c r="C407" s="2" t="s">
         <v>900</v>
@@ -22579,7 +22578,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A408" s="1"/>
       <c r="C408" s="2" t="s">
         <v>900</v>
@@ -22594,7 +22593,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A409" s="1"/>
       <c r="C409" s="2" t="s">
         <v>900</v>
@@ -22609,7 +22608,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A410" s="1"/>
       <c r="C410" s="2" t="s">
         <v>900</v>
@@ -22624,7 +22623,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A411" s="1"/>
       <c r="C411" s="2" t="s">
         <v>900</v>
@@ -22639,7 +22638,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A412" s="1"/>
       <c r="C412" s="2" t="s">
         <v>900</v>
@@ -22654,7 +22653,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A413" s="1"/>
       <c r="C413" s="2" t="s">
         <v>900</v>
@@ -22669,7 +22668,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A414" s="1"/>
       <c r="C414" s="2" t="s">
         <v>900</v>
@@ -22687,7 +22686,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A415" s="1"/>
       <c r="C415" s="2" t="s">
         <v>900</v>
@@ -22705,7 +22704,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A416" s="1"/>
       <c r="C416" s="2" t="s">
         <v>900</v>
@@ -22723,7 +22722,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A417" s="1"/>
       <c r="C417" s="2" t="s">
         <v>900</v>
@@ -22741,7 +22740,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A418" s="1"/>
       <c r="C418" s="2" t="s">
         <v>900</v>
@@ -22759,7 +22758,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A419" s="1"/>
       <c r="C419" s="2" t="s">
         <v>900</v>
@@ -22777,7 +22776,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A420" s="1"/>
       <c r="C420" s="2" t="s">
         <v>900</v>
@@ -22795,7 +22794,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A421" s="1"/>
       <c r="C421" s="2" t="s">
         <v>900</v>
@@ -22813,7 +22812,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A422" s="1"/>
       <c r="C422" s="2" t="s">
         <v>900</v>
@@ -22831,7 +22830,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A423" s="1"/>
       <c r="C423" s="2" t="s">
         <v>900</v>
@@ -22849,7 +22848,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="424" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A424" s="1"/>
       <c r="C424" s="2" t="s">
         <v>900</v>
@@ -22867,7 +22866,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A425" s="1"/>
       <c r="C425" s="2" t="s">
         <v>900</v>
@@ -22885,7 +22884,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="426" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A426" s="1"/>
       <c r="C426" s="2" t="s">
         <v>900</v>
@@ -22903,7 +22902,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="427" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A427" s="1"/>
       <c r="C427" s="2" t="s">
         <v>900</v>
@@ -22921,7 +22920,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="428" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A428" s="1"/>
       <c r="C428" s="2" t="s">
         <v>900</v>
@@ -22939,7 +22938,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A429" s="1"/>
       <c r="C429" s="2" t="s">
         <v>900</v>
@@ -22957,7 +22956,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="430" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A430" s="1"/>
       <c r="C430" s="2" t="s">
         <v>900</v>
@@ -22975,7 +22974,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A431" s="1"/>
       <c r="C431" s="2" t="s">
         <v>900</v>
@@ -22993,7 +22992,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A432" s="1"/>
       <c r="C432" s="2" t="s">
         <v>900</v>
@@ -23011,7 +23010,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="433" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A433" s="1"/>
       <c r="C433" s="2" t="s">
         <v>900</v>
@@ -23029,7 +23028,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A434" s="1"/>
       <c r="C434" s="2" t="s">
         <v>900</v>
@@ -23047,7 +23046,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="435" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A435" s="1"/>
       <c r="C435" s="2" t="s">
         <v>900</v>
@@ -23065,7 +23064,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="436" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A436" s="1"/>
       <c r="C436" s="2" t="s">
         <v>900</v>
@@ -23083,7 +23082,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="437" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A437" s="1"/>
       <c r="C437" s="2" t="s">
         <v>900</v>
@@ -23101,7 +23100,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:11" ht="98" x14ac:dyDescent="0.15">
       <c r="C438" s="2" t="s">
         <v>900</v>
       </c>
@@ -23124,7 +23123,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="439" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="C439" s="2" t="s">
         <v>900</v>
       </c>
@@ -23147,7 +23146,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="440" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A440" s="1"/>
       <c r="C440" s="2" t="s">
         <v>900</v>
@@ -23171,7 +23170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="441" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A441" s="1"/>
       <c r="C441" s="2" t="s">
         <v>900</v>
@@ -23195,7 +23194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A442" s="1"/>
       <c r="C442" s="2" t="s">
         <v>900</v>
@@ -23219,7 +23218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="443" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A443" s="1"/>
       <c r="C443" s="2" t="s">
         <v>900</v>
@@ -23243,7 +23242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="444" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A444" s="1"/>
       <c r="C444" s="2" t="s">
         <v>900</v>
@@ -23267,7 +23266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="445" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A445" s="1"/>
       <c r="C445" s="2" t="s">
         <v>900</v>
@@ -23291,7 +23290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A446" s="1"/>
       <c r="C446" s="2" t="s">
         <v>900</v>
@@ -23315,7 +23314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="447" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A447" s="1"/>
       <c r="C447" s="2" t="s">
         <v>900</v>
@@ -23339,7 +23338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A448" s="1"/>
       <c r="C448" s="2" t="s">
         <v>900</v>
@@ -23363,7 +23362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A449" s="1"/>
       <c r="C449" s="2" t="s">
         <v>900</v>
@@ -23387,7 +23386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="450" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C450" s="2" t="s">
         <v>900</v>
       </c>
@@ -23410,7 +23409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C451" s="2" t="s">
         <v>900</v>
       </c>
@@ -23433,7 +23432,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C452" s="2" t="s">
         <v>900</v>
       </c>
@@ -23456,7 +23455,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="453" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C453" s="2" t="s">
         <v>900</v>
       </c>
@@ -23479,7 +23478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="454" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C454" s="2" t="s">
         <v>900</v>
       </c>
@@ -23502,7 +23501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C455" s="2" t="s">
         <v>900</v>
       </c>
@@ -23525,7 +23524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C456" s="2" t="s">
         <v>900</v>
       </c>
@@ -23548,7 +23547,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C457" s="2" t="s">
         <v>900</v>
       </c>
@@ -23571,7 +23570,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="458" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C458" s="2" t="s">
         <v>900</v>
       </c>
@@ -23594,7 +23593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C459" s="2" t="s">
         <v>900</v>
       </c>
@@ -23617,7 +23616,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C460" s="2" t="s">
         <v>900</v>
       </c>
@@ -23640,7 +23639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C461" s="2" t="s">
         <v>900</v>
       </c>
@@ -23663,7 +23662,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C462" s="2" t="s">
         <v>900</v>
       </c>
@@ -23686,7 +23685,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C463" s="2" t="s">
         <v>900</v>
       </c>
@@ -23709,7 +23708,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="464" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C464" s="2" t="s">
         <v>900</v>
       </c>
@@ -23732,7 +23731,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="465" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C465" s="2" t="s">
         <v>900</v>
       </c>
@@ -23755,7 +23754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="466" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C466" s="2" t="s">
         <v>900</v>
       </c>
@@ -23778,7 +23777,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="467" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C467" s="2" t="s">
         <v>900</v>
       </c>
@@ -23801,7 +23800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="468" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C468" s="2" t="s">
         <v>900</v>
       </c>
@@ -23824,7 +23823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="469" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C469" s="2" t="s">
         <v>900</v>
       </c>
@@ -23847,7 +23846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A470" s="1"/>
       <c r="C470" s="2" t="s">
         <v>900</v>
@@ -23865,7 +23864,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A471" s="1"/>
       <c r="C471" s="2" t="s">
         <v>900</v>
@@ -23883,7 +23882,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="472" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A472" s="1"/>
       <c r="C472" s="2" t="s">
         <v>900</v>
@@ -23901,7 +23900,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="473" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A473" s="1"/>
       <c r="C473" s="2" t="s">
         <v>900</v>
@@ -23919,7 +23918,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A474" s="1"/>
       <c r="C474" s="2" t="s">
         <v>900</v>
@@ -23937,7 +23936,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A475" s="1"/>
       <c r="C475" s="2" t="s">
         <v>900</v>
@@ -23955,7 +23954,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="71" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11" ht="71" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A476" s="21"/>
       <c r="B476" s="20"/>
       <c r="C476" s="20" t="s">
@@ -23978,7 +23977,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="C477" s="2" t="s">
         <v>900</v>
       </c>
@@ -24001,7 +24000,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="C478" s="2" t="s">
         <v>900</v>
       </c>
@@ -24024,7 +24023,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="C479" s="2" t="s">
         <v>900</v>
       </c>
@@ -24044,7 +24043,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="C480" s="2" t="s">
         <v>900</v>
       </c>
@@ -24067,7 +24066,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B481" s="2" t="s">
         <v>900</v>
       </c>
@@ -24096,7 +24095,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="482" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B482" s="2" t="s">
         <v>900</v>
       </c>
@@ -24125,7 +24124,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="483" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B483" s="2" t="s">
         <v>900</v>
       </c>
@@ -24154,7 +24153,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="484" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B484" s="2" t="s">
         <v>900</v>
       </c>
@@ -24183,7 +24182,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="485" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B485" s="2" t="s">
         <v>900</v>
       </c>
@@ -24212,7 +24211,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="486" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B486" s="2" t="s">
         <v>900</v>
       </c>
@@ -24241,7 +24240,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="487" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B487" s="2" t="s">
         <v>900</v>
       </c>
@@ -24270,7 +24269,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="488" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B488" s="2" t="s">
         <v>900</v>
       </c>
@@ -24299,7 +24298,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="489" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B489" s="2" t="s">
         <v>900</v>
       </c>
@@ -24328,7 +24327,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="490" spans="1:11" ht="71" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:11" ht="71" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A490" s="20"/>
       <c r="B490" s="20" t="s">
         <v>900</v>
@@ -24359,7 +24358,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="491" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B491" s="2" t="s">
         <v>900</v>
       </c>
@@ -24388,7 +24387,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="492" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B492" s="2" t="s">
         <v>900</v>
       </c>
@@ -24417,7 +24416,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="493" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C493" s="2" t="s">
         <v>900</v>
       </c>
@@ -24444,7 +24443,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="494" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B494" s="2" t="s">
         <v>900</v>
       </c>
@@ -24473,7 +24472,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="495" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B495" s="2" t="s">
         <v>900</v>
       </c>
@@ -24502,7 +24501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="496" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B496" s="2" t="s">
         <v>900</v>
       </c>
@@ -24531,7 +24530,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="497" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B497" s="2" t="s">
         <v>900</v>
       </c>
@@ -24560,7 +24559,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="498" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B498" s="2" t="s">
         <v>900</v>
       </c>
@@ -24589,7 +24588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="499" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B499" s="2" t="s">
         <v>900</v>
       </c>
@@ -24618,7 +24617,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="500" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B500" s="2" t="s">
         <v>900</v>
       </c>
@@ -24647,7 +24646,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="501" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B501" s="2" t="s">
         <v>900</v>
       </c>
@@ -24676,7 +24675,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="502" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B502" s="2" t="s">
         <v>900</v>
       </c>
@@ -24705,7 +24704,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A503" s="1"/>
       <c r="C503" s="2" t="s">
         <v>900</v>
@@ -24729,7 +24728,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A504" s="1"/>
       <c r="C504" s="2" t="s">
         <v>900</v>
@@ -24753,7 +24752,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="505" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A505" s="1"/>
       <c r="C505" s="2" t="s">
         <v>900</v>
@@ -24777,7 +24776,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="506" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B506" s="2" t="s">
         <v>900</v>
       </c>
@@ -24806,7 +24805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="507" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B507" s="2" t="s">
         <v>900</v>
       </c>
@@ -24835,7 +24834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B508" s="2" t="s">
         <v>900</v>
       </c>
@@ -24864,7 +24863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B509" s="2" t="s">
         <v>900</v>
       </c>
@@ -24893,7 +24892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="510" spans="1:11" ht="210" hidden="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:11" ht="210" x14ac:dyDescent="0.15">
       <c r="B510" s="2" t="s">
         <v>900</v>
       </c>
@@ -24922,7 +24921,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="43" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A511" s="20"/>
       <c r="B511" s="20" t="s">
         <v>900</v>
@@ -24953,7 +24952,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="512" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B512" s="2" t="s">
         <v>900</v>
       </c>
@@ -24982,7 +24981,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="513" spans="2:11" ht="112" hidden="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="2:11" ht="112" x14ac:dyDescent="0.15">
       <c r="B513" s="2" t="s">
         <v>900</v>
       </c>
@@ -25011,7 +25010,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="514" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B514" s="2" t="s">
         <v>900</v>
       </c>
@@ -25040,7 +25039,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="515" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B515" s="2" t="s">
         <v>900</v>
       </c>
@@ -25069,7 +25068,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="516" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B516" s="2" t="s">
         <v>900</v>
       </c>
@@ -25095,7 +25094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="517" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B517" s="2" t="s">
         <v>900</v>
       </c>
@@ -25121,7 +25120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="518" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B518" s="2" t="s">
         <v>900</v>
       </c>
@@ -25150,7 +25149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="519" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B519" s="2" t="s">
         <v>900</v>
       </c>
@@ -25179,7 +25178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="520" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B520" s="2" t="s">
         <v>900</v>
       </c>
@@ -25208,7 +25207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="521" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B521" s="2" t="s">
         <v>900</v>
       </c>
@@ -25237,7 +25236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="522" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B522" s="2" t="s">
         <v>900</v>
       </c>
@@ -25266,7 +25265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="523" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B523" s="2" t="s">
         <v>900</v>
       </c>
@@ -25295,7 +25294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="524" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B524" s="2" t="s">
         <v>900</v>
       </c>
@@ -25324,7 +25323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="525" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B525" s="2" t="s">
         <v>900</v>
       </c>
@@ -25353,7 +25352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="526" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B526" s="2" t="s">
         <v>900</v>
       </c>
@@ -25382,7 +25381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="527" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B527" s="2" t="s">
         <v>900</v>
       </c>
@@ -25411,7 +25410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="528" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B528" s="2" t="s">
         <v>900</v>
       </c>
@@ -25440,7 +25439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="529" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B529" s="2" t="s">
         <v>900</v>
       </c>
@@ -25469,7 +25468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="530" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B530" s="2" t="s">
         <v>900</v>
       </c>
@@ -25495,7 +25494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="531" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B531" s="2" t="s">
         <v>900</v>
       </c>
@@ -25521,7 +25520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="532" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B532" s="2" t="s">
         <v>900</v>
       </c>
@@ -25550,7 +25549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="533" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B533" s="2" t="s">
         <v>900</v>
       </c>
@@ -25579,7 +25578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="534" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B534" s="2" t="s">
         <v>900</v>
       </c>
@@ -25608,7 +25607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="535" spans="1:11" ht="43" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:11" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A535" s="21"/>
       <c r="B535" s="20"/>
       <c r="C535" s="20" t="s">
@@ -25631,7 +25630,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="536" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A536" s="1"/>
       <c r="C536" s="2" t="s">
         <v>900</v>
@@ -25649,7 +25648,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="537" spans="1:11" ht="126" hidden="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:11" ht="126" x14ac:dyDescent="0.15">
       <c r="A537" s="1"/>
       <c r="C537" s="2" t="s">
         <v>900</v>
@@ -25667,7 +25666,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="538" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A538" s="1"/>
       <c r="C538" s="2" t="s">
         <v>900</v>
@@ -25682,7 +25681,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="539" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A539" s="1"/>
       <c r="C539" s="2" t="s">
         <v>900</v>
@@ -25706,7 +25705,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="540" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A540" s="1"/>
       <c r="C540" s="2" t="s">
         <v>900</v>
@@ -25730,7 +25729,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="541" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A541" s="1"/>
       <c r="C541" s="2" t="s">
         <v>900</v>
@@ -25754,7 +25753,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="542" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A542" s="1"/>
       <c r="C542" s="2" t="s">
         <v>900</v>
@@ -25769,7 +25768,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="543" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A543" s="1"/>
       <c r="C543" s="2" t="s">
         <v>900</v>
@@ -25784,7 +25783,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="544" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A544" s="1"/>
       <c r="C544" s="2" t="s">
         <v>900</v>
@@ -25799,7 +25798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="545" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A545" s="1"/>
       <c r="C545" s="2" t="s">
         <v>900</v>
@@ -25814,7 +25813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A546" s="1"/>
       <c r="C546" s="2" t="s">
         <v>900</v>
@@ -25832,7 +25831,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="547" spans="1:11" ht="29" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:11" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A547" s="21"/>
       <c r="B547" s="20"/>
       <c r="C547" s="20" t="s">
@@ -25853,7 +25852,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A548" s="1"/>
       <c r="C548" s="2" t="s">
         <v>900</v>
@@ -25868,7 +25867,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A549" s="1"/>
       <c r="C549" s="2" t="s">
         <v>900</v>
@@ -25883,7 +25882,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A550" s="1"/>
       <c r="C550" s="2" t="s">
         <v>900</v>
@@ -25898,7 +25897,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="551" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A551" s="1"/>
       <c r="C551" s="2" t="s">
         <v>900</v>
@@ -25913,7 +25912,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="552" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A552" s="1"/>
       <c r="C552" s="2" t="s">
         <v>900</v>
@@ -25928,7 +25927,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="553" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A553" s="1"/>
       <c r="C553" s="2" t="s">
         <v>900</v>
@@ -25943,7 +25942,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="554" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A554" s="1"/>
       <c r="C554" s="2" t="s">
         <v>900</v>
@@ -25958,7 +25957,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="555" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A555" s="1"/>
       <c r="C555" s="2" t="s">
         <v>900</v>
@@ -25973,7 +25972,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="556" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A556" s="1"/>
       <c r="C556" s="2" t="s">
         <v>900</v>
@@ -25988,7 +25987,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="557" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A557" s="1"/>
       <c r="C557" s="2" t="s">
         <v>900</v>
@@ -26003,7 +26002,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="558" spans="1:11" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A558" s="21"/>
       <c r="B558" s="20"/>
       <c r="C558" s="20" t="s">
@@ -26024,7 +26023,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="559" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A559" s="1"/>
       <c r="C559" s="2" t="s">
         <v>900</v>
@@ -26039,7 +26038,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="560" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A560" s="1"/>
       <c r="C560" s="2" t="s">
         <v>900</v>
@@ -26054,7 +26053,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="561" spans="1:11" ht="57" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A561" s="21"/>
       <c r="B561" s="20"/>
       <c r="C561" s="20" t="s">
@@ -26075,7 +26074,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="562" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A562" s="1"/>
       <c r="C562" s="2" t="s">
         <v>900</v>
@@ -26090,7 +26089,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="563" spans="1:11" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:11" ht="224" x14ac:dyDescent="0.15">
       <c r="A563" s="1"/>
       <c r="C563" s="2" t="s">
         <v>900</v>
@@ -26108,7 +26107,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="564" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A564" s="1"/>
       <c r="C564" s="2" t="s">
         <v>900</v>
@@ -26132,7 +26131,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="565" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A565" s="1"/>
       <c r="C565" s="2" t="s">
         <v>900</v>
@@ -26156,7 +26155,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="566" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A566" s="1"/>
       <c r="C566" s="2" t="s">
         <v>900</v>
@@ -26180,7 +26179,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="567" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A567" s="1"/>
       <c r="C567" s="2" t="s">
         <v>900</v>
@@ -26204,7 +26203,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="568" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A568" s="1"/>
       <c r="C568" s="2" t="s">
         <v>900</v>
@@ -26228,7 +26227,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="569" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A569" s="1"/>
       <c r="C569" s="2" t="s">
         <v>900</v>
@@ -26252,7 +26251,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="570" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A570" s="1"/>
       <c r="C570" s="2" t="s">
         <v>900</v>
@@ -26276,7 +26275,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="571" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A571" s="1"/>
       <c r="C571" s="2" t="s">
         <v>900</v>
@@ -26291,7 +26290,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="572" spans="1:11" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:11" ht="224" x14ac:dyDescent="0.15">
       <c r="A572" s="1"/>
       <c r="C572" s="2" t="s">
         <v>900</v>
@@ -26309,7 +26308,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="573" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A573" s="1"/>
       <c r="C573" s="2" t="s">
         <v>900</v>
@@ -26324,7 +26323,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="574" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A574" s="1"/>
       <c r="C574" s="2" t="s">
         <v>900</v>
@@ -26342,7 +26341,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="575" spans="1:11" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:11" ht="224" x14ac:dyDescent="0.15">
       <c r="A575" s="1"/>
       <c r="C575" s="2" t="s">
         <v>900</v>
@@ -26360,7 +26359,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="576" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A576" s="1"/>
       <c r="C576" s="2" t="s">
         <v>900</v>
@@ -26375,7 +26374,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="577" spans="1:11" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:11" ht="196" x14ac:dyDescent="0.15">
       <c r="A577" s="1"/>
       <c r="C577" s="2" t="s">
         <v>900</v>
@@ -26393,7 +26392,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="578" spans="1:11" ht="168" hidden="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:11" ht="168" x14ac:dyDescent="0.15">
       <c r="A578" s="1"/>
       <c r="C578" s="2" t="s">
         <v>900</v>
@@ -26411,7 +26410,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="579" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A579" s="1"/>
       <c r="C579" s="2" t="s">
         <v>900</v>
@@ -26429,7 +26428,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="580" spans="1:11" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:11" ht="98" x14ac:dyDescent="0.15">
       <c r="A580" s="1"/>
       <c r="C580" s="2" t="s">
         <v>900</v>
@@ -26447,7 +26446,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="581" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A581" s="1"/>
       <c r="B581" s="2" t="s">
         <v>900</v>
@@ -26461,7 +26460,7 @@
       </c>
       <c r="K581" s="1"/>
     </row>
-    <row r="582" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A582" s="1"/>
       <c r="C582" s="2" t="s">
         <v>900</v>
@@ -26479,7 +26478,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="583" spans="1:11" ht="112" hidden="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:11" ht="112" x14ac:dyDescent="0.15">
       <c r="A583" s="1"/>
       <c r="C583" s="2" t="s">
         <v>900</v>
@@ -26497,7 +26496,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="584" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A584" s="1"/>
       <c r="C584" s="2" t="s">
         <v>900</v>
@@ -26515,7 +26514,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="585" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A585" s="1"/>
       <c r="C585" s="2" t="s">
         <v>900</v>
@@ -26533,7 +26532,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="586" spans="1:11" ht="182" hidden="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:11" ht="182" x14ac:dyDescent="0.15">
       <c r="A586" s="1"/>
       <c r="C586" s="2" t="s">
         <v>900</v>
@@ -26551,7 +26550,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="587" spans="1:11" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:11" ht="293" x14ac:dyDescent="0.15">
       <c r="A587" s="1"/>
       <c r="C587" s="2" t="s">
         <v>900</v>
@@ -26569,7 +26568,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="588" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A588" s="1"/>
       <c r="C588" s="2" t="s">
         <v>900</v>
@@ -26587,7 +26586,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="589" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A589" s="1"/>
       <c r="C589" s="2" t="s">
         <v>900</v>
@@ -26605,7 +26604,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="590" spans="1:11" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:11" ht="224" x14ac:dyDescent="0.15">
       <c r="A590" s="1"/>
       <c r="C590" s="2" t="s">
         <v>900</v>
@@ -26623,7 +26622,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="591" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A591" s="1"/>
       <c r="C591" s="2" t="s">
         <v>900</v>
@@ -26638,7 +26637,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="592" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A592" s="1"/>
       <c r="C592" s="2" t="s">
         <v>900</v>
@@ -26653,7 +26652,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="593" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A593" s="1"/>
       <c r="C593" s="2" t="s">
         <v>900</v>
@@ -26668,7 +26667,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="594" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A594" s="1"/>
       <c r="C594" s="2" t="s">
         <v>900</v>
@@ -26683,7 +26682,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="595" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A595" s="1"/>
       <c r="C595" s="2" t="s">
         <v>900</v>
@@ -26698,7 +26697,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="596" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A596" s="1"/>
       <c r="C596" s="2" t="s">
         <v>900</v>
@@ -26713,7 +26712,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="597" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A597" s="1"/>
       <c r="C597" s="2" t="s">
         <v>900</v>
@@ -26728,7 +26727,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="598" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A598" s="1"/>
       <c r="C598" s="2" t="s">
         <v>900</v>
@@ -26743,7 +26742,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="599" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A599" s="1"/>
       <c r="C599" s="2" t="s">
         <v>900</v>
@@ -26758,7 +26757,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="600" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A600" s="1"/>
       <c r="C600" s="2" t="s">
         <v>900</v>
@@ -26773,7 +26772,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="601" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A601" s="1"/>
       <c r="C601" s="2" t="s">
         <v>900</v>
@@ -26788,7 +26787,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="602" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A602" s="1"/>
       <c r="C602" s="2" t="s">
         <v>900</v>
@@ -26803,7 +26802,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="603" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="C603" s="2" t="s">
         <v>900</v>
       </c>
@@ -26823,7 +26822,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="604" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B604" s="2" t="s">
         <v>900</v>
       </c>
@@ -26849,7 +26848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="605" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="C605" s="2" t="s">
         <v>900</v>
       </c>
@@ -26872,7 +26871,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="606" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="C606" s="2" t="s">
         <v>900</v>
       </c>
@@ -26895,7 +26894,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="607" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B607" s="2" t="s">
         <v>900</v>
       </c>
@@ -26924,7 +26923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="608" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="C608" s="2" t="s">
         <v>900</v>
       </c>
@@ -26947,7 +26946,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="609" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B609" s="2" t="s">
         <v>900</v>
       </c>
@@ -26976,7 +26975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="610" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B610" s="2" t="s">
         <v>900</v>
       </c>
@@ -27005,7 +27004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="611" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B611" s="2" t="s">
         <v>900</v>
       </c>
@@ -27034,7 +27033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="612" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B612" s="2" t="s">
         <v>900</v>
       </c>
@@ -27063,7 +27062,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="613" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B613" s="2" t="s">
         <v>900</v>
       </c>
@@ -27092,7 +27091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="614" spans="2:11" ht="112" hidden="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="2:11" ht="112" x14ac:dyDescent="0.15">
       <c r="B614" s="2" t="s">
         <v>900</v>
       </c>
@@ -27106,7 +27105,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="615" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F615" s="2" t="s">
         <v>1780</v>
       </c>
@@ -27120,7 +27119,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="616" spans="2:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="616" spans="2:11" ht="84" x14ac:dyDescent="0.15">
       <c r="F616" s="2" t="s">
         <v>439</v>
       </c>
@@ -27134,7 +27133,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="617" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F617" s="2" t="s">
         <v>440</v>
       </c>
@@ -27148,7 +27147,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="618" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F618" s="2" t="s">
         <v>443</v>
       </c>
@@ -27162,7 +27161,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="619" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="619" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F619" s="2" t="s">
         <v>1793</v>
       </c>
@@ -27176,7 +27175,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="620" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="620" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F620" s="2" t="s">
         <v>1800</v>
       </c>
@@ -27190,7 +27189,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="621" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F621" s="2" t="s">
         <v>1804</v>
       </c>
@@ -27204,7 +27203,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="622" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="622" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F622" s="2" t="s">
         <v>1808</v>
       </c>
@@ -27442,7 +27441,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="638" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="F638" s="2" t="s">
         <v>1720</v>
       </c>
@@ -27456,7 +27455,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="639" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="F639" s="2" t="s">
         <v>1721</v>
       </c>
@@ -27470,7 +27469,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="640" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="F640" s="2" t="s">
         <v>1722</v>
       </c>
@@ -27484,7 +27483,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="641" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B641" s="2" t="s">
         <v>900</v>
       </c>
@@ -27501,7 +27500,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="642" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B642" s="2" t="s">
         <v>900</v>
       </c>
@@ -27518,7 +27517,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="643" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B643" s="2" t="s">
         <v>900</v>
       </c>
@@ -27535,7 +27534,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="644" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B644" s="2" t="s">
         <v>900</v>
       </c>
@@ -27552,7 +27551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="645" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B645" s="2" t="s">
         <v>900</v>
       </c>
@@ -27569,7 +27568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="646" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B646" s="2" t="s">
         <v>900</v>
       </c>
@@ -27586,7 +27585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="647" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B647" s="2" t="s">
         <v>900</v>
       </c>
@@ -27603,7 +27602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="648" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B648" s="2" t="s">
         <v>900</v>
       </c>
@@ -27620,7 +27619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="649" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B649" s="2" t="s">
         <v>900</v>
       </c>
@@ -27637,7 +27636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="650" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B650" s="2" t="s">
         <v>900</v>
       </c>
@@ -27654,7 +27653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="651" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B651" s="2" t="s">
         <v>900</v>
       </c>
@@ -27671,7 +27670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="652" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B652" s="2" t="s">
         <v>900</v>
       </c>
@@ -27688,7 +27687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="653" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B653" s="2" t="s">
         <v>900</v>
       </c>
@@ -27705,7 +27704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="654" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B654" s="2" t="s">
         <v>900</v>
       </c>
@@ -27722,7 +27721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="655" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B655" s="2" t="s">
         <v>900</v>
       </c>
@@ -27739,7 +27738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="656" spans="1:11" ht="43" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:11" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A656" s="20"/>
       <c r="B656" s="20" t="s">
         <v>900</v>
@@ -27762,7 +27761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="657" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B657" s="2" t="s">
         <v>900</v>
       </c>
@@ -27779,7 +27778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="658" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B658" s="2" t="s">
         <v>900</v>
       </c>
@@ -27796,7 +27795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="659" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B659" s="2" t="s">
         <v>900</v>
       </c>
@@ -27813,7 +27812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="660" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B660" s="2" t="s">
         <v>900</v>
       </c>
@@ -27830,7 +27829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="661" spans="1:11" ht="29" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:11" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A661" s="20"/>
       <c r="B661" s="20" t="s">
         <v>900</v>
@@ -27853,7 +27852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="662" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B662" s="2" t="s">
         <v>900</v>
       </c>
@@ -27870,7 +27869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="663" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B663" s="2" t="s">
         <v>900</v>
       </c>
@@ -27887,7 +27886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="664" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B664" s="2" t="s">
         <v>900</v>
       </c>
@@ -27904,7 +27903,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="665" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B665" s="2" t="s">
         <v>900</v>
       </c>
@@ -27921,7 +27920,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="666" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B666" s="2" t="s">
         <v>900</v>
       </c>
@@ -27938,7 +27937,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="667" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B667" s="2" t="s">
         <v>900</v>
       </c>
@@ -27955,7 +27954,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="668" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B668" s="2" t="s">
         <v>900</v>
       </c>
@@ -27972,7 +27971,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="669" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B669" s="2" t="s">
         <v>900</v>
       </c>
@@ -27989,7 +27988,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="670" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="B670" s="2" t="s">
         <v>900</v>
       </c>
@@ -28006,7 +28005,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="671" spans="1:11" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:11" ht="98" x14ac:dyDescent="0.15">
       <c r="B671" s="2" t="s">
         <v>900</v>
       </c>
@@ -28023,7 +28022,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="672" spans="1:11" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:11" ht="98" x14ac:dyDescent="0.15">
       <c r="B672" s="2" t="s">
         <v>900</v>
       </c>
@@ -28040,7 +28039,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="673" spans="2:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="673" spans="2:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B673" s="2" t="s">
         <v>900</v>
       </c>
@@ -28057,7 +28056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="674" spans="2:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="674" spans="2:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B674" s="2" t="s">
         <v>900</v>
       </c>
@@ -28074,7 +28073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="675" spans="2:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="675" spans="2:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B675" s="2" t="s">
         <v>900</v>
       </c>
@@ -28091,7 +28090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="676" spans="2:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="2:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B676" s="2" t="s">
         <v>900</v>
       </c>
@@ -28108,7 +28107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="677" spans="2:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="677" spans="2:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B677" s="2" t="s">
         <v>900</v>
       </c>
@@ -28125,7 +28124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="678" spans="2:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="2:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B678" s="2" t="s">
         <v>900</v>
       </c>
@@ -28142,7 +28141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="2:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="679" spans="2:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B679" s="2" t="s">
         <v>900</v>
       </c>
@@ -28159,7 +28158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="680" spans="2:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="680" spans="2:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B680" s="2" t="s">
         <v>900</v>
       </c>
@@ -28176,7 +28175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="681" spans="2:11" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="681" spans="2:11" ht="28" x14ac:dyDescent="0.15">
       <c r="B681" s="2" t="s">
         <v>900</v>
       </c>
@@ -28193,7 +28192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="682" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="682" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B682" s="2" t="s">
         <v>900</v>
       </c>
@@ -28210,7 +28209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="683" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B683" s="2" t="s">
         <v>900</v>
       </c>
@@ -28227,7 +28226,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="684" spans="2:11" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="684" spans="2:11" ht="84" x14ac:dyDescent="0.15">
       <c r="B684" s="2" t="s">
         <v>900</v>
       </c>
@@ -28244,7 +28243,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="685" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="685" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B685" s="2" t="s">
         <v>900</v>
       </c>
@@ -28261,7 +28260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="686" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="686" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B686" s="2" t="s">
         <v>900</v>
       </c>
@@ -28278,7 +28277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="687" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="687" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B687" s="2" t="s">
         <v>900</v>
       </c>
@@ -28295,7 +28294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="688" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="688" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B688" s="2" t="s">
         <v>900</v>
       </c>
@@ -28312,7 +28311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="689" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="689" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B689" s="2" t="s">
         <v>900</v>
       </c>
@@ -28329,7 +28328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="690" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="690" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B690" s="2" t="s">
         <v>900</v>
       </c>
@@ -28346,7 +28345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="691" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="691" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B691" s="2" t="s">
         <v>900</v>
       </c>
@@ -28363,7 +28362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="692" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="692" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B692" s="2" t="s">
         <v>900</v>
       </c>
@@ -28380,7 +28379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="693" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="693" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B693" s="2" t="s">
         <v>900</v>
       </c>
@@ -28397,7 +28396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="694" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="694" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B694" s="2" t="s">
         <v>900</v>
       </c>
@@ -28414,7 +28413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="695" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="695" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B695" s="2" t="s">
         <v>900</v>
       </c>
@@ -28431,7 +28430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="696" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="696" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B696" s="2" t="s">
         <v>900</v>
       </c>
@@ -28448,7 +28447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="697" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="697" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B697" s="2" t="s">
         <v>900</v>
       </c>
@@ -28465,7 +28464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="698" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="698" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B698" s="2" t="s">
         <v>900</v>
       </c>
@@ -28482,7 +28481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="699" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B699" s="2" t="s">
         <v>900</v>
       </c>
@@ -28499,7 +28498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="700" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B700" s="2" t="s">
         <v>900</v>
       </c>
@@ -28516,7 +28515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="701" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B701" s="2" t="s">
         <v>900</v>
       </c>
@@ -28533,7 +28532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="702" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="702" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B702" s="2" t="s">
         <v>900</v>
       </c>
@@ -28550,7 +28549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="703" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B703" s="2" t="s">
         <v>900</v>
       </c>
@@ -28567,7 +28566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="704" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B704" s="2" t="s">
         <v>900</v>
       </c>
@@ -28584,7 +28583,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="705" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="705" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B705" s="2" t="s">
         <v>900</v>
       </c>
@@ -28601,7 +28600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="706" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="706" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B706" s="2" t="s">
         <v>900</v>
       </c>
@@ -28618,7 +28617,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="707" spans="2:11" ht="154" hidden="1" x14ac:dyDescent="0.15">
+    <row r="707" spans="2:11" ht="154" x14ac:dyDescent="0.15">
       <c r="B707" s="2" t="s">
         <v>900</v>
       </c>
@@ -28635,7 +28634,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="708" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="708" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B708" s="2" t="s">
         <v>900</v>
       </c>
@@ -28652,7 +28651,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="709" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="709" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B709" s="2" t="s">
         <v>900</v>
       </c>
@@ -28669,7 +28668,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="710" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="710" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="B710" s="2" t="s">
         <v>900</v>
       </c>
@@ -28686,7 +28685,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="711" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="711" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="B711" s="2" t="s">
         <v>900</v>
       </c>
@@ -28703,7 +28702,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="712" spans="2:11" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="712" spans="2:11" ht="196" x14ac:dyDescent="0.15">
       <c r="B712" s="2" t="s">
         <v>900</v>
       </c>
@@ -28720,7 +28719,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="713" spans="2:11" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="713" spans="2:11" ht="196" x14ac:dyDescent="0.15">
       <c r="B713" s="2" t="s">
         <v>900</v>
       </c>
@@ -28737,7 +28736,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="714" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="714" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F714" s="2" t="s">
         <v>1767</v>
       </c>
@@ -28751,7 +28750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="715" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="715" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F715" s="2" t="s">
         <v>1768</v>
       </c>
@@ -28765,7 +28764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="716" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="716" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F716" s="2" t="s">
         <v>1769</v>
       </c>
@@ -28779,7 +28778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="717" spans="2:11" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="717" spans="2:11" ht="42" x14ac:dyDescent="0.15">
       <c r="F717" s="2" t="s">
         <v>1427</v>
       </c>
@@ -28793,7 +28792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="718" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="718" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="F718" s="2" t="s">
         <v>1428</v>
       </c>
@@ -28807,7 +28806,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="719" spans="2:11" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="719" spans="2:11" ht="56" x14ac:dyDescent="0.15">
       <c r="F719" s="2" t="s">
         <v>1442</v>
       </c>
@@ -28821,7 +28820,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="720" spans="2:11" ht="70" hidden="1" x14ac:dyDescent="0.15">
+    <row r="720" spans="2:11" ht="70" x14ac:dyDescent="0.15">
       <c r="F720" s="2" t="s">
         <v>404</v>
       </c>
@@ -28835,7 +28834,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="721" spans="6:11" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="721" spans="6:11" ht="98" x14ac:dyDescent="0.15">
       <c r="F721" s="2" t="s">
         <v>405</v>
       </c>
@@ -28851,27 +28850,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K721" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="q15a"/>
-        <filter val="q15b"/>
-        <filter val="q15c"/>
-        <filter val="q15d"/>
-        <filter val="q15e"/>
-        <filter val="q15f"/>
-        <filter val="q15g"/>
-        <filter val="q15h"/>
-        <filter val="q15i"/>
-        <filter val="q15j"/>
-        <filter val="q15k"/>
-        <filter val="q15l"/>
-        <filter val="q15m"/>
-        <filter val="q15n"/>
-        <filter val="q15o"/>
-        <filter val="q15p"/>
-        <filter val="q15q"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K721">
       <sortCondition ref="E1:E721"/>
     </sortState>
@@ -28883,26 +28861,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -29145,10 +29103,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7718B614-0F54-469D-BEBF-08BB2D61BFC8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29171,20 +29160,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7718B614-0F54-469D-BEBF-08BB2D61BFC8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/GPP_2022_Datamap all.xlsx
+++ b/Data/GPP_2022_Datamap all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/LAC-Reports/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2832D68-4956-DE46-BBC8-87B3F9834D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -11742,8 +11742,8 @@
   <dimension ref="A1:K721"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I321" sqref="I321"/>
+      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I284" sqref="I284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28861,6 +28861,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -29103,27 +29123,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9CC4A80-4ECE-427A-8469-477A6F4D7F16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7718B614-0F54-469D-BEBF-08BB2D61BFC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29140,29 +29165,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9CC4A80-4ECE-427A-8469-477A6F4D7F16}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>